--- a/09_MPEC_Bidding_Diagonalization/Model_CSV/Renewable Production.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/Model_CSV/Renewable Production.xlsx
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01881827144183346</v>
+        <v>2.465967568053007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006278403670913486</v>
+        <v>0.08344811754779587</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -616,22 +616,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01596009559795555</v>
+        <v>4.29955346188477</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03735695424563087</v>
+        <v>9.635951934679422</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0456681122927881</v>
+        <v>11.87539331944504</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07033462024863352</v>
+        <v>9.278583354503368</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01518061857955776</v>
+        <v>3.991887802976927</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02221624502074903</v>
+        <v>5.872337986534667</v>
       </c>
     </row>
     <row r="3">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07533814251111137</v>
+        <v>2.720215963077151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001568317304358447</v>
+        <v>0.09599643040462642</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1278295369036185</v>
+        <v>4.475696179452798</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3361196020071666</v>
+        <v>10.64441729115643</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2740709752894617</v>
+        <v>12.33255482416732</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2811610555806949</v>
+        <v>10.50795974876319</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1062301008500612</v>
+        <v>4.507684176438029</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1334007474464372</v>
+        <v>6.539588437185642</v>
       </c>
     </row>
     <row r="4">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01881038436018031</v>
+        <v>2.550641266628307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003138766822082546</v>
+        <v>0.08407947429468947</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01601194794294674</v>
+        <v>4.331375607971347</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03735461331871186</v>
+        <v>10.08419003608426</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0913524063259521</v>
+        <v>12.9261975063842</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07027665785477227</v>
+        <v>10.05143535178016</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03036009242809659</v>
+        <v>4.356192108920554</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04450909163465079</v>
+        <v>6.182926383345353</v>
       </c>
     </row>
     <row r="5">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08477784942372203</v>
+        <v>2.786332948976058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002509772245626997</v>
+        <v>0.09191613272603784</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1278951483333601</v>
+        <v>4.427685692455807</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3735035987855046</v>
+        <v>10.71867286321912</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4110617521154206</v>
+        <v>12.60633427911321</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2811653853099056</v>
+        <v>9.699402033325139</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09112342549336377</v>
+        <v>4.37176559788542</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1779489775814738</v>
+        <v>6.339256524370449</v>
       </c>
     </row>
     <row r="6">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02825214229223581</v>
+        <v>2.635358197422334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001254494826180331</v>
+        <v>0.08689628863982699</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -932,22 +932,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0639073450228779</v>
+        <v>4.395766866653283</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1120187307588915</v>
+        <v>10.49502885577053</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1370088696277031</v>
+        <v>13.10870819514067</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07029243119943937</v>
+        <v>9.594876730394846</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04549741182170448</v>
+        <v>4.219628452225166</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06668296869752667</v>
+        <v>5.960612792275098</v>
       </c>
     </row>
     <row r="7">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09412366827802038</v>
+        <v>2.645084187096817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00313731364641281</v>
+        <v>0.08752297095918742</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1011,22 +1011,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1598161721070047</v>
+        <v>4.299544707522956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2987988585826536</v>
+        <v>9.972215120287302</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4567909628972519</v>
+        <v>12.74343581303488</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2811742217539203</v>
+        <v>9.911282364055614</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1518283703498362</v>
+        <v>4.386485000028706</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1778845539060364</v>
+        <v>5.960409704608824</v>
       </c>
     </row>
     <row r="8">
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01883224666964708</v>
+        <v>2.795131404062682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006274481572349399</v>
+        <v>0.09474445507095366</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01595704796790718</v>
+        <v>4.475334608280817</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07470447904932662</v>
+        <v>11.31666209697386</v>
       </c>
       <c r="V8" t="n">
-        <v>0.09133719900661592</v>
+        <v>14.06812636610789</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03511939181084704</v>
+        <v>10.64948384087215</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01517938986649532</v>
+        <v>4.31042789820542</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02225982985325873</v>
+        <v>6.561751130056704</v>
       </c>
     </row>
     <row r="9">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07530086869467745</v>
+        <v>2.597865228774008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001568870001044722</v>
+        <v>0.0884690457281623</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.128036652341521</v>
+        <v>4.460246296508145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2240847044592266</v>
+        <v>10.27078527896389</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3197295385371858</v>
+        <v>12.42382611146283</v>
       </c>
       <c r="W9" t="n">
-        <v>0.21085952691838</v>
+        <v>9.594449708788773</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1062749130116874</v>
+        <v>4.310615881586268</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1779650780831917</v>
+        <v>6.428175328500448</v>
       </c>
     </row>
     <row r="10">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009419169439021453</v>
+        <v>2.701045005238264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006272790160688086</v>
+        <v>0.09129265430401289</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01599039997045556</v>
+        <v>4.746558554331074</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03735292623596155</v>
+        <v>10.68175079440404</v>
       </c>
       <c r="V10" t="n">
-        <v>0.09134790966179258</v>
+        <v>13.10889677678653</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03516252042238521</v>
+        <v>9.664637794876951</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01519428205778479</v>
+        <v>4.249857371324989</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04451860687990606</v>
+        <v>6.428319058031446</v>
       </c>
     </row>
   </sheetData>

--- a/09_MPEC_Bidding_Diagonalization/Model_CSV/Renewable Production.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/Model_CSV/Renewable Production.xlsx
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.465967568053007</v>
+        <v>0.0009693775933203222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08344811754779587</v>
+        <v>2.854669803417234e-05</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -616,22 +616,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.29955346188477</v>
+        <v>0.001598872014592819</v>
       </c>
       <c r="U2" t="n">
-        <v>9.635951934679422</v>
+        <v>0.003510858512411381</v>
       </c>
       <c r="V2" t="n">
-        <v>11.87539331944504</v>
+        <v>0.004293365647424563</v>
       </c>
       <c r="W2" t="n">
-        <v>9.278583354503368</v>
+        <v>0.003374087480832711</v>
       </c>
       <c r="X2" t="n">
-        <v>3.991887802976927</v>
+        <v>0.001457185843249024</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.872337986534667</v>
+        <v>0.002068753603322121</v>
       </c>
     </row>
     <row r="3">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.720215963077151</v>
+        <v>0.000912996346243991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09599643040462642</v>
+        <v>2.917636473269975e-05</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4.475696179452798</v>
+        <v>0.001454311427198444</v>
       </c>
       <c r="U3" t="n">
-        <v>10.64441729115643</v>
+        <v>0.003436029569160604</v>
       </c>
       <c r="V3" t="n">
-        <v>12.33255482416732</v>
+        <v>0.004019442911189411</v>
       </c>
       <c r="W3" t="n">
-        <v>10.50795974876319</v>
+        <v>0.003338613370778783</v>
       </c>
       <c r="X3" t="n">
-        <v>4.507684176438029</v>
+        <v>0.001472201656177217</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.539588437185642</v>
+        <v>0.001957233050876802</v>
       </c>
     </row>
     <row r="4">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.550641266628307</v>
+        <v>0.0008280867362189944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08407947429468947</v>
+        <v>2.697947059339759e-05</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4.331375607971347</v>
+        <v>0.00147081633133121</v>
       </c>
       <c r="U4" t="n">
-        <v>10.08419003608426</v>
+        <v>0.003249356206234723</v>
       </c>
       <c r="V4" t="n">
-        <v>12.9261975063842</v>
+        <v>0.004521870625854451</v>
       </c>
       <c r="W4" t="n">
-        <v>10.05143535178016</v>
+        <v>0.003057659421472096</v>
       </c>
       <c r="X4" t="n">
-        <v>4.356192108920554</v>
+        <v>0.001396345370537505</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.182926383345353</v>
+        <v>0.002046111407506982</v>
       </c>
     </row>
     <row r="5">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.786332948976058</v>
+        <v>0.0008847607066296179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09191613272603784</v>
+        <v>3.074157787046773e-05</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4.427685692455807</v>
+        <v>0.001470878239195645</v>
       </c>
       <c r="U5" t="n">
-        <v>10.71867286321912</v>
+        <v>0.003921511909518988</v>
       </c>
       <c r="V5" t="n">
-        <v>12.60633427911321</v>
+        <v>0.00438484883346001</v>
       </c>
       <c r="W5" t="n">
-        <v>9.699402033325139</v>
+        <v>0.003549652370936012</v>
       </c>
       <c r="X5" t="n">
-        <v>4.37176559788542</v>
+        <v>0.001472452344913136</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.339256524370449</v>
+        <v>0.00211314452146437</v>
       </c>
     </row>
     <row r="6">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.635358197422334</v>
+        <v>0.0008470815481422077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08689628863982699</v>
+        <v>2.792102376497027e-05</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -932,22 +932,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4.395766866653283</v>
+        <v>0.00132669558929608</v>
       </c>
       <c r="U6" t="n">
-        <v>10.49502885577053</v>
+        <v>0.003137345550451177</v>
       </c>
       <c r="V6" t="n">
-        <v>13.10870819514067</v>
+        <v>0.003973738669338808</v>
       </c>
       <c r="W6" t="n">
-        <v>9.594876730394846</v>
+        <v>0.00302258616162774</v>
       </c>
       <c r="X6" t="n">
-        <v>4.219628452225166</v>
+        <v>0.001244613131582719</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.960612792275098</v>
+        <v>0.001890210744868065</v>
       </c>
     </row>
     <row r="7">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.645084187096817</v>
+        <v>0.0009318547972387424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08752297095918742</v>
+        <v>3.043018131074114e-05</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1011,22 +1011,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4.299544707522956</v>
+        <v>0.001454133322782344</v>
       </c>
       <c r="U7" t="n">
-        <v>9.972215120287302</v>
+        <v>0.003585513961208218</v>
       </c>
       <c r="V7" t="n">
-        <v>12.74343581303488</v>
+        <v>0.004293448944621191</v>
       </c>
       <c r="W7" t="n">
-        <v>9.911282364055614</v>
+        <v>0.003373633529340778</v>
       </c>
       <c r="X7" t="n">
-        <v>4.386485000028706</v>
+        <v>0.001396226087733105</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.960409704608824</v>
+        <v>0.002001719713820088</v>
       </c>
     </row>
     <row r="8">
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.795131404062682</v>
+        <v>0.0008376320726024521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09474445507095366</v>
+        <v>2.791969968458532e-05</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.475334608280817</v>
+        <v>0.00142254366276033</v>
       </c>
       <c r="U8" t="n">
-        <v>11.31666209697386</v>
+        <v>0.003473505920501494</v>
       </c>
       <c r="V8" t="n">
-        <v>14.06812636610789</v>
+        <v>0.004110708362287142</v>
       </c>
       <c r="W8" t="n">
-        <v>10.64948384087215</v>
+        <v>0.0028466991308635</v>
       </c>
       <c r="X8" t="n">
-        <v>4.31042789820542</v>
+        <v>0.001350676690841316</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.561751130056704</v>
+        <v>0.001913062190079435</v>
       </c>
     </row>
     <row r="9">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.597865228774008</v>
+        <v>0.0008847066443108974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0884690457281623</v>
+        <v>2.917475698400801e-05</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.460246296508145</v>
+        <v>0.001487033081776574</v>
       </c>
       <c r="U9" t="n">
-        <v>10.27078527896389</v>
+        <v>0.00351075557419271</v>
       </c>
       <c r="V9" t="n">
-        <v>12.42382611146283</v>
+        <v>0.004247872424458329</v>
       </c>
       <c r="W9" t="n">
-        <v>9.594449708788773</v>
+        <v>0.003233661210354325</v>
       </c>
       <c r="X9" t="n">
-        <v>4.310615881586268</v>
+        <v>0.001472226229173472</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.428175328500448</v>
+        <v>0.002180103531207345</v>
       </c>
     </row>
     <row r="10">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.701045005238264</v>
+        <v>0.0008940221812809426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09129265430401289</v>
+        <v>2.635070842685834e-05</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4.746558554331074</v>
+        <v>0.001358898604112545</v>
       </c>
       <c r="U10" t="n">
-        <v>10.68175079440404</v>
+        <v>0.003286734873177841</v>
       </c>
       <c r="V10" t="n">
-        <v>13.10889677678653</v>
+        <v>0.004247821360341585</v>
       </c>
       <c r="W10" t="n">
-        <v>9.664637794876951</v>
+        <v>0.003022683523006479</v>
       </c>
       <c r="X10" t="n">
-        <v>4.249857371324989</v>
+        <v>0.001290111381502321</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.428319058031446</v>
+        <v>0.001846243986435675</v>
       </c>
     </row>
   </sheetData>

--- a/09_MPEC_Bidding_Diagonalization/Model_CSV/Renewable Production.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/Model_CSV/Renewable Production.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.135549363108373e-09</v>
+        <v>3.135549363108372e-09</v>
       </c>
       <c r="C2" t="n">
         <v>1.045390559046002e-10</v>
@@ -631,7 +631,7 @@
         <v>5.061529909231016e-09</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.894779140792343e-09</v>
+        <v>8.894779140792344e-09</v>
       </c>
     </row>
     <row r="3">
@@ -644,7 +644,7 @@
         <v>3.138015710282789e-09</v>
       </c>
       <c r="C3" t="n">
-        <v>6.270761668656456e-11</v>
+        <v>6.270761668656455e-11</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>1.171595497373006e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>4.553818053509716e-09</v>
+        <v>4.553818053509717e-09</v>
       </c>
       <c r="Y3" t="n">
         <v>5.930470532629925e-09</v>
@@ -723,7 +723,7 @@
         <v>3.450250448300216e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>8.369277080963267e-11</v>
+        <v>8.369277080963268e-11</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>1.171608493717758e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>5.055959364102378e-09</v>
+        <v>5.055959364102377e-09</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.892934065858879e-09</v>
+        <v>8.892934065858881e-09</v>
       </c>
     </row>
     <row r="5">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.451440710128127e-09</v>
+        <v>3.451440710128126e-09</v>
       </c>
       <c r="C5" t="n">
         <v>1.255216962803964e-10</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5.86384447534496e-09</v>
+        <v>5.863844475344961e-09</v>
       </c>
       <c r="U5" t="n">
         <v>1.742991357640729e-08</v>
@@ -881,7 +881,7 @@
         <v>1.882614783286471e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>8.363411232739379e-11</v>
+        <v>8.36341123273938e-11</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>3.195670063002182e-09</v>
       </c>
       <c r="U6" t="n">
-        <v>9.960078496716711e-09</v>
+        <v>9.960078496716715e-09</v>
       </c>
       <c r="V6" t="n">
         <v>1.065733949142397e-08</v>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.509785299290482e-09</v>
+        <v>2.509785299290483e-09</v>
       </c>
       <c r="C7" t="n">
         <v>8.365744843604376e-11</v>
@@ -1020,13 +1020,13 @@
         <v>1.065815306911768e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>8.198339916731874e-09</v>
+        <v>8.198339916731876e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>4.049570631850604e-09</v>
+        <v>4.049570631850605e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.705659786834642e-09</v>
+        <v>3.705659786834643e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.262529118447004e-09</v>
+        <v>4.262529118447003e-09</v>
       </c>
       <c r="U8" t="n">
         <v>1.120353350126258e-08</v>
@@ -1105,7 +1105,7 @@
         <v>3.540512697383927e-09</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.929552674359043e-09</v>
+        <v>5.929552674359044e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>1.171588585574576e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>4.554509612124274e-09</v>
+        <v>4.554509612124273e-09</v>
       </c>
       <c r="Y9" t="n">
         <v>7.413654412811804e-09</v>
@@ -1197,7 +1197,7 @@
         <v>3.137057993903831e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>8.364026808132998e-11</v>
+        <v>8.364026808132996e-11</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>1.288721955677445e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>5.565884375851248e-09</v>
+        <v>5.565884375851249e-09</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.414283890210796e-09</v>
+        <v>7.414283890210797e-09</v>
       </c>
     </row>
   </sheetData>
